--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_CATEGORIES.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_CATEGORIES.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB06_BULK_IMPORTING_SQL_SERVER\LA_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB06_BULK_IMPORTING_T_SQL_QUERIES\LA_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="TB" sheetId="1" r:id="rId1"/>
+    <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="543">
   <si>
     <t xml:space="preserve"> Cái </t>
   </si>
@@ -1650,9 +1650,6 @@
   </si>
   <si>
     <t>MA_THANH_PHAM</t>
-  </si>
-  <si>
-    <t>BẢNG DANH MỤC THÀNH PHẨM</t>
   </si>
   <si>
     <t>XOA_SUA</t>
@@ -1662,7 +1659,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1672,12 +1669,6 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -1734,10 +1725,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -2023,12 +2013,12 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B28" sqref="B28"/>
-      <selection pane="bottomLeft" activeCell="B260" sqref="B260"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2039,45 +2029,59 @@
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>543</v>
+      <c r="A3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2085,10 +2089,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2096,10 +2100,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2107,65 +2111,65 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>525</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>521</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -2173,43 +2177,43 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
-        <v>517</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
+        <v>513</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -2217,10 +2221,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B18" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2228,10 +2232,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B19" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -2239,10 +2243,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B20" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -2250,10 +2254,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -2261,10 +2265,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B22" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -2272,10 +2276,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -2283,10 +2287,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -2294,10 +2298,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B25" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
@@ -2305,21 +2309,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s">
-        <v>493</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
+        <v>489</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B27" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -2327,21 +2331,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B28" t="s">
-        <v>489</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+        <v>485</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B29" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
@@ -2349,10 +2353,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B30" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
@@ -2360,10 +2364,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B31" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -2371,43 +2375,43 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
+        <v>477</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B34" t="s">
-        <v>477</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B35" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -2415,10 +2419,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B36" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -2426,10 +2430,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B37" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -2437,21 +2441,21 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B38" t="s">
-        <v>469</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
+        <v>465</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -2459,21 +2463,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+        <v>461</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B41" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -2481,10 +2485,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2492,10 +2496,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B43" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -2503,21 +2507,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B44" t="s">
-        <v>457</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
+        <v>453</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B45" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2525,21 +2529,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B46" t="s">
-        <v>453</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
+        <v>449</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B47" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2547,43 +2551,43 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B48" t="s">
-        <v>449</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
+        <v>445</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -2591,10 +2595,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B52" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -2602,10 +2606,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -2613,21 +2617,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s">
-        <v>437</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
+        <v>433</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -2635,21 +2639,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s">
-        <v>433</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
+        <v>429</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -2657,10 +2661,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -2668,10 +2672,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B59" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -2679,21 +2683,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
+        <v>421</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -2701,21 +2705,21 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s">
-        <v>421</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
+        <v>417</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -2723,10 +2727,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -2734,10 +2738,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -2745,21 +2749,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s">
-        <v>413</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
+        <v>409</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -2767,32 +2771,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
+        <v>405</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B69" t="s">
-        <v>407</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
+        <v>403</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -2800,21 +2804,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B72" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -2822,10 +2826,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B73" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -2833,10 +2837,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -2844,21 +2848,21 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B75" t="s">
-        <v>395</v>
-      </c>
-      <c r="C75" t="s">
-        <v>18</v>
+        <v>391</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -2866,21 +2870,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B77" t="s">
-        <v>391</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
+        <v>387</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B78" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2888,10 +2892,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2899,54 +2903,54 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B80" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
-      </c>
-      <c r="C81" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B83" t="s">
-        <v>379</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B84" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -2954,10 +2958,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B85" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -2965,10 +2969,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -2976,21 +2980,21 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s">
-        <v>371</v>
-      </c>
-      <c r="C87" t="s">
-        <v>18</v>
+        <v>367</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -2998,21 +3002,21 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s">
-        <v>367</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -3020,87 +3024,87 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
-      </c>
-      <c r="C91" t="s">
-        <v>18</v>
+        <v>359</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B92" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
+        <v>355</v>
+      </c>
+      <c r="C93" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C94" t="s">
-        <v>354</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
+        <v>346</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B98" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -3108,21 +3112,21 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
+        <v>342</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -3130,10 +3134,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
@@ -3141,10 +3145,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -3152,21 +3156,21 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
-      </c>
-      <c r="C103" t="s">
-        <v>18</v>
+        <v>334</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
@@ -3174,21 +3178,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B106" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -3196,10 +3200,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B107" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
@@ -3207,10 +3211,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B108" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
@@ -3218,21 +3222,21 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
-      </c>
-      <c r="C109" t="s">
-        <v>18</v>
+        <v>322</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B110" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
@@ -3240,21 +3244,21 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B111" t="s">
-        <v>322</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
+        <v>318</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B112" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
@@ -3262,21 +3266,21 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
-      </c>
-      <c r="C113" t="s">
-        <v>18</v>
+        <v>314</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
@@ -3284,21 +3288,21 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B115" t="s">
-        <v>314</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
         <v>18</v>
@@ -3306,10 +3310,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B117" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
@@ -3317,10 +3321,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
@@ -3328,43 +3332,43 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
-      </c>
-      <c r="C119" t="s">
-        <v>18</v>
+        <v>302</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B121" t="s">
-        <v>302</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
+        <v>298</v>
+      </c>
+      <c r="C121" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B122" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C122" t="s">
         <v>291</v>
@@ -3372,10 +3376,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B123" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C123" t="s">
         <v>291</v>
@@ -3383,10 +3387,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
         <v>291</v>
@@ -3394,43 +3398,43 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B125" t="s">
-        <v>294</v>
-      </c>
-      <c r="C125" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B126" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B127" t="s">
-        <v>289</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C128" t="s">
         <v>18</v>
@@ -3438,10 +3442,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C129" t="s">
         <v>18</v>
@@ -3449,10 +3453,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B130" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C130" t="s">
         <v>18</v>
@@ -3460,65 +3464,65 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
-      </c>
-      <c r="C131" t="s">
-        <v>18</v>
+        <v>277</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>277</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="C133" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C135" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -3526,43 +3530,43 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6</v>
+        <v>264</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B139" t="s">
-        <v>264</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
@@ -3570,10 +3574,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B141" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C141" t="s">
         <v>18</v>
@@ -3581,10 +3585,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
@@ -3592,21 +3596,21 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
-      </c>
-      <c r="C143" t="s">
-        <v>18</v>
+        <v>252</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C144" t="s">
         <v>18</v>
@@ -3614,21 +3618,21 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C146" t="s">
         <v>18</v>
@@ -3636,10 +3640,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B147" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C147" t="s">
         <v>18</v>
@@ -3647,10 +3651,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B148" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
@@ -3658,21 +3662,21 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
-      </c>
-      <c r="C149" t="s">
-        <v>18</v>
+        <v>240</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
@@ -3680,21 +3684,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C152" t="s">
         <v>18</v>
@@ -3702,10 +3706,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
@@ -3713,10 +3717,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C154" t="s">
         <v>18</v>
@@ -3724,43 +3728,43 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B155" t="s">
-        <v>232</v>
-      </c>
-      <c r="C155" t="s">
-        <v>18</v>
+        <v>228</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>228</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -3768,10 +3772,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B159" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -3779,10 +3783,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -3790,43 +3794,43 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6</v>
+        <v>216</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B164" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C164" t="s">
         <v>18</v>
@@ -3834,10 +3838,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B165" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
@@ -3845,10 +3849,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C166" t="s">
         <v>18</v>
@@ -3856,54 +3860,54 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B167" t="s">
-        <v>208</v>
-      </c>
-      <c r="C167" t="s">
-        <v>18</v>
+        <v>204</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B168" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B170" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C170" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C171" t="s">
         <v>18</v>
@@ -3911,54 +3915,54 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
-      </c>
-      <c r="C173" t="s">
-        <v>18</v>
+        <v>192</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C174" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B176" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C176" t="s">
         <v>18</v>
@@ -3966,10 +3970,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
@@ -3977,10 +3981,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C178" t="s">
         <v>18</v>
@@ -3988,32 +3992,32 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>184</v>
-      </c>
-      <c r="C179" t="s">
-        <v>18</v>
+        <v>180</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
-      </c>
-      <c r="C180" t="s">
-        <v>18</v>
+        <v>178</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4021,10 +4025,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4032,10 +4036,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4043,10 +4047,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B184" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4054,10 +4058,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4065,10 +4069,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B186" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4076,10 +4080,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B187" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4087,10 +4091,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B188" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4098,10 +4102,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B189" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4109,10 +4113,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B190" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4120,10 +4124,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B191" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4131,10 +4135,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B192" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -4142,10 +4146,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B193" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4153,10 +4157,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B194" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4164,32 +4168,32 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B195" t="s">
-        <v>152</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B196" t="s">
-        <v>150</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B197" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C197" t="s">
         <v>18</v>
@@ -4197,10 +4201,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B198" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C198" t="s">
         <v>18</v>
@@ -4208,10 +4212,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B199" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C199" t="s">
         <v>18</v>
@@ -4219,98 +4223,98 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B200" t="s">
-        <v>142</v>
-      </c>
-      <c r="C200" t="s">
-        <v>18</v>
+        <v>138</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B201" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B202" t="s">
-        <v>138</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B203" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C203" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B204" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B205" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B206" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B207" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B208" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C208" t="s">
         <v>18</v>
@@ -4318,10 +4322,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B209" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C209" t="s">
         <v>18</v>
@@ -4329,10 +4333,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B210" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
@@ -4340,10 +4344,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B211" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C211" t="s">
         <v>18</v>
@@ -4351,21 +4355,21 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B212" t="s">
-        <v>118</v>
-      </c>
-      <c r="C212" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B213" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C213" t="s">
         <v>18</v>
@@ -4373,21 +4377,21 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B214" t="s">
-        <v>114</v>
-      </c>
-      <c r="C214">
+        <v>110</v>
+      </c>
+      <c r="C214" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B215" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C215" t="s">
         <v>18</v>
@@ -4395,21 +4399,21 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B216" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C216" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B217" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C217" t="s">
         <v>18</v>
@@ -4417,21 +4421,21 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B218" t="s">
-        <v>106</v>
-      </c>
-      <c r="C218" t="s">
-        <v>18</v>
+        <v>102</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B219" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C219" t="s">
         <v>18</v>
@@ -4439,21 +4443,21 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B220" t="s">
-        <v>102</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="C220" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B221" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C221" t="s">
         <v>18</v>
@@ -4461,43 +4465,43 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B222" t="s">
-        <v>98</v>
-      </c>
-      <c r="C222" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B223" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>94</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="C224" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B225" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C225" t="s">
         <v>55</v>
@@ -4505,43 +4509,43 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B226" t="s">
-        <v>90</v>
-      </c>
-      <c r="C226" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B227" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C227" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B228" t="s">
-        <v>86</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C228" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B229" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C229" t="s">
         <v>18</v>
@@ -4549,21 +4553,21 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B230" t="s">
-        <v>82</v>
-      </c>
-      <c r="C230" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B231" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C231" t="s">
         <v>18</v>
@@ -4571,32 +4575,32 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B232" t="s">
-        <v>78</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C232" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B233" t="s">
-        <v>76</v>
-      </c>
-      <c r="C233" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B234" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C234" t="s">
         <v>18</v>
@@ -4604,21 +4608,21 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B235" t="s">
-        <v>72</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="C235" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B236" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C236" t="s">
         <v>18</v>
@@ -4626,10 +4630,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B237" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
@@ -4637,10 +4641,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B238" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C238" t="s">
         <v>18</v>
@@ -4648,87 +4652,87 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B239" t="s">
-        <v>64</v>
-      </c>
-      <c r="C239" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B240" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B241" t="s">
-        <v>60</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C241" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B242" t="s">
-        <v>58</v>
-      </c>
-      <c r="C242" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C243" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>53</v>
-      </c>
-      <c r="C244">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C244" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s">
-        <v>51</v>
-      </c>
-      <c r="C245" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B246" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C246" t="s">
         <v>18</v>
@@ -4736,21 +4740,21 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C247">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="C247" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C248" t="s">
         <v>18</v>
@@ -4758,21 +4762,21 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B249" t="s">
-        <v>43</v>
-      </c>
-      <c r="C249" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B250" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C250" t="s">
         <v>18</v>
@@ -4780,32 +4784,32 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B251" t="s">
-        <v>39</v>
-      </c>
-      <c r="C251">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C251" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B252" t="s">
-        <v>37</v>
-      </c>
-      <c r="C252" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C253" t="s">
         <v>18</v>
@@ -4813,21 +4817,21 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B254" t="s">
-        <v>33</v>
-      </c>
-      <c r="C254">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C254" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C255" t="s">
         <v>18</v>
@@ -4835,21 +4839,21 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
-      </c>
-      <c r="C256" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B257" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C257" t="s">
         <v>18</v>
@@ -4857,21 +4861,21 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
-      </c>
-      <c r="C258">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C258" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C259" t="s">
         <v>18</v>
@@ -4879,100 +4883,78 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B260" t="s">
-        <v>21</v>
-      </c>
-      <c r="C260" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
-      </c>
-      <c r="C262">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
-      </c>
-      <c r="C265">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>5</v>
-      </c>
-      <c r="B267" t="s">
-        <v>4</v>
-      </c>
-      <c r="C267" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>2</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
         <v>0</v>
       </c>
     </row>

--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_CATEGORIES.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_CATEGORIES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="546">
   <si>
     <t xml:space="preserve"> Cái </t>
   </si>
@@ -1653,6 +1653,15 @@
   </si>
   <si>
     <t>XOA_SUA</t>
+  </si>
+  <si>
+    <t>ID_NHAN_VIEN</t>
+  </si>
+  <si>
+    <t>NGAY_TAO_PHIEU</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -1725,10 +1734,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -2013,12 +2023,12 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B28" sqref="B28"/>
-      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
+      <selection pane="bottomLeft" sqref="A1:F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2029,7 +2039,7 @@
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>541</v>
       </c>
@@ -2040,10 +2050,16 @@
         <v>539</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -2053,8 +2069,15 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E65" ca="1" si="0">TODAY()</f>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>536</v>
       </c>
@@ -2064,8 +2087,15 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>534</v>
       </c>
@@ -2075,8 +2105,15 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>545</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>532</v>
       </c>
@@ -2086,8 +2123,15 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>530</v>
       </c>
@@ -2097,8 +2141,15 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>528</v>
       </c>
@@ -2108,8 +2159,15 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>526</v>
       </c>
@@ -2119,8 +2177,15 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>524</v>
       </c>
@@ -2130,8 +2195,15 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>522</v>
       </c>
@@ -2141,8 +2213,15 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>520</v>
       </c>
@@ -2152,8 +2231,15 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>518</v>
       </c>
@@ -2163,8 +2249,15 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>516</v>
       </c>
@@ -2174,8 +2267,15 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -2185,8 +2285,15 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>512</v>
       </c>
@@ -2196,8 +2303,15 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>545</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -2207,8 +2321,15 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>545</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -2218,8 +2339,15 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>506</v>
       </c>
@@ -2229,8 +2357,15 @@
       <c r="C18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>545</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>504</v>
       </c>
@@ -2240,8 +2375,15 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>545</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>502</v>
       </c>
@@ -2251,8 +2393,15 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>545</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>500</v>
       </c>
@@ -2262,8 +2411,15 @@
       <c r="C21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>498</v>
       </c>
@@ -2273,8 +2429,15 @@
       <c r="C22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>496</v>
       </c>
@@ -2284,8 +2447,15 @@
       <c r="C23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>494</v>
       </c>
@@ -2295,8 +2465,15 @@
       <c r="C24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>545</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>492</v>
       </c>
@@ -2306,8 +2483,15 @@
       <c r="C25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>545</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>490</v>
       </c>
@@ -2317,8 +2501,15 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>545</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -2328,8 +2519,15 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>545</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>486</v>
       </c>
@@ -2339,8 +2537,15 @@
       <c r="C28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>545</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>484</v>
       </c>
@@ -2350,8 +2555,15 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>545</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>482</v>
       </c>
@@ -2361,8 +2573,15 @@
       <c r="C30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>480</v>
       </c>
@@ -2372,8 +2591,15 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>545</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>478</v>
       </c>
@@ -2383,8 +2609,15 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>476</v>
       </c>
@@ -2394,8 +2627,15 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>474</v>
       </c>
@@ -2405,8 +2645,15 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>545</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>472</v>
       </c>
@@ -2416,8 +2663,15 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>470</v>
       </c>
@@ -2427,8 +2681,15 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>545</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -2438,8 +2699,15 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>545</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>466</v>
       </c>
@@ -2449,8 +2717,15 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>464</v>
       </c>
@@ -2460,8 +2735,15 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>545</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>462</v>
       </c>
@@ -2471,8 +2753,15 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>545</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>460</v>
       </c>
@@ -2482,8 +2771,15 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>545</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>458</v>
       </c>
@@ -2493,8 +2789,15 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>545</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>456</v>
       </c>
@@ -2504,8 +2807,15 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>545</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>454</v>
       </c>
@@ -2515,8 +2825,15 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>545</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>452</v>
       </c>
@@ -2526,8 +2843,15 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>545</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>450</v>
       </c>
@@ -2537,8 +2861,15 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>545</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>448</v>
       </c>
@@ -2548,8 +2879,15 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>545</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>446</v>
       </c>
@@ -2559,8 +2897,15 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>545</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>444</v>
       </c>
@@ -2570,8 +2915,15 @@
       <c r="C49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>545</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -2581,8 +2933,15 @@
       <c r="C50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>545</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>440</v>
       </c>
@@ -2592,8 +2951,15 @@
       <c r="C51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>545</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>438</v>
       </c>
@@ -2603,8 +2969,15 @@
       <c r="C52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>545</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>436</v>
       </c>
@@ -2614,8 +2987,15 @@
       <c r="C53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>545</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>434</v>
       </c>
@@ -2625,8 +3005,15 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>545</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>432</v>
       </c>
@@ -2636,8 +3023,15 @@
       <c r="C55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>545</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>430</v>
       </c>
@@ -2647,8 +3041,15 @@
       <c r="C56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>545</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>428</v>
       </c>
@@ -2658,8 +3059,15 @@
       <c r="C57" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>545</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>426</v>
       </c>
@@ -2669,8 +3077,15 @@
       <c r="C58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>545</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>424</v>
       </c>
@@ -2680,8 +3095,15 @@
       <c r="C59" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>545</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>422</v>
       </c>
@@ -2691,8 +3113,15 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>545</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>420</v>
       </c>
@@ -2702,8 +3131,15 @@
       <c r="C61" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>545</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>418</v>
       </c>
@@ -2713,8 +3149,15 @@
       <c r="C62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>545</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>416</v>
       </c>
@@ -2724,8 +3167,15 @@
       <c r="C63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>545</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>414</v>
       </c>
@@ -2735,8 +3185,15 @@
       <c r="C64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>545</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>412</v>
       </c>
@@ -2746,8 +3203,15 @@
       <c r="C65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>545</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -2757,8 +3221,15 @@
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>545</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" ref="E66:E129" ca="1" si="1">TODAY()</f>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>408</v>
       </c>
@@ -2768,8 +3239,15 @@
       <c r="C67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>545</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>406</v>
       </c>
@@ -2779,8 +3257,15 @@
       <c r="C68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>545</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>404</v>
       </c>
@@ -2790,8 +3275,15 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>545</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>402</v>
       </c>
@@ -2801,8 +3293,15 @@
       <c r="C70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>545</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>400</v>
       </c>
@@ -2812,8 +3311,15 @@
       <c r="C71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>545</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>398</v>
       </c>
@@ -2823,8 +3329,15 @@
       <c r="C72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>396</v>
       </c>
@@ -2834,8 +3347,15 @@
       <c r="C73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>545</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>394</v>
       </c>
@@ -2845,8 +3365,15 @@
       <c r="C74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>545</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>392</v>
       </c>
@@ -2856,8 +3383,15 @@
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>545</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>390</v>
       </c>
@@ -2867,8 +3401,15 @@
       <c r="C76" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>545</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>388</v>
       </c>
@@ -2878,8 +3419,15 @@
       <c r="C77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>545</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>386</v>
       </c>
@@ -2889,8 +3437,15 @@
       <c r="C78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>545</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>384</v>
       </c>
@@ -2900,8 +3455,15 @@
       <c r="C79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>545</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>382</v>
       </c>
@@ -2911,8 +3473,15 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>545</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -2922,8 +3491,15 @@
       <c r="C81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>545</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>378</v>
       </c>
@@ -2933,8 +3509,15 @@
       <c r="C82" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>545</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>376</v>
       </c>
@@ -2944,8 +3527,15 @@
       <c r="C83" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>545</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>374</v>
       </c>
@@ -2955,8 +3545,15 @@
       <c r="C84" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>545</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>372</v>
       </c>
@@ -2966,8 +3563,15 @@
       <c r="C85" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>545</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>370</v>
       </c>
@@ -2977,8 +3581,15 @@
       <c r="C86" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>545</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>368</v>
       </c>
@@ -2988,8 +3599,15 @@
       <c r="C87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>545</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>366</v>
       </c>
@@ -2999,8 +3617,15 @@
       <c r="C88" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>545</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>364</v>
       </c>
@@ -3010,8 +3635,15 @@
       <c r="C89" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>545</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>362</v>
       </c>
@@ -3021,8 +3653,15 @@
       <c r="C90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>545</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>360</v>
       </c>
@@ -3032,8 +3671,15 @@
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>545</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>358</v>
       </c>
@@ -3043,8 +3689,15 @@
       <c r="C92" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>545</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>356</v>
       </c>
@@ -3054,8 +3707,15 @@
       <c r="C93" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>545</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>353</v>
       </c>
@@ -3065,8 +3725,15 @@
       <c r="C94" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>545</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>351</v>
       </c>
@@ -3076,8 +3743,15 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>545</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>349</v>
       </c>
@@ -3087,8 +3761,15 @@
       <c r="C96" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>545</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>347</v>
       </c>
@@ -3098,8 +3779,15 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>545</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>345</v>
       </c>
@@ -3109,8 +3797,15 @@
       <c r="C98" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>545</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>343</v>
       </c>
@@ -3120,8 +3815,15 @@
       <c r="C99" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>545</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>341</v>
       </c>
@@ -3131,8 +3833,15 @@
       <c r="C100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>545</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>339</v>
       </c>
@@ -3142,8 +3851,15 @@
       <c r="C101" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>545</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>337</v>
       </c>
@@ -3153,8 +3869,15 @@
       <c r="C102" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>545</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>335</v>
       </c>
@@ -3164,8 +3887,15 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>545</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>333</v>
       </c>
@@ -3175,8 +3905,15 @@
       <c r="C104" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>545</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>331</v>
       </c>
@@ -3186,8 +3923,15 @@
       <c r="C105" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>545</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>329</v>
       </c>
@@ -3197,8 +3941,15 @@
       <c r="C106" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>545</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>327</v>
       </c>
@@ -3208,8 +3959,15 @@
       <c r="C107" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>545</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>325</v>
       </c>
@@ -3219,8 +3977,15 @@
       <c r="C108" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>545</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>323</v>
       </c>
@@ -3230,8 +3995,15 @@
       <c r="C109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>545</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -3241,8 +4013,15 @@
       <c r="C110" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>545</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -3252,8 +4031,15 @@
       <c r="C111" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>545</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -3263,8 +4049,15 @@
       <c r="C112" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>545</v>
+      </c>
+      <c r="E112" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>315</v>
       </c>
@@ -3274,8 +4067,15 @@
       <c r="C113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>545</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>313</v>
       </c>
@@ -3285,8 +4085,15 @@
       <c r="C114" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>545</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>311</v>
       </c>
@@ -3296,8 +4103,15 @@
       <c r="C115" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>545</v>
+      </c>
+      <c r="E115" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>309</v>
       </c>
@@ -3307,8 +4121,15 @@
       <c r="C116" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>545</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>307</v>
       </c>
@@ -3318,8 +4139,15 @@
       <c r="C117" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>545</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>305</v>
       </c>
@@ -3329,8 +4157,15 @@
       <c r="C118" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>545</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>303</v>
       </c>
@@ -3340,8 +4175,15 @@
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>545</v>
+      </c>
+      <c r="E119" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>301</v>
       </c>
@@ -3351,8 +4193,15 @@
       <c r="C120" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>545</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>299</v>
       </c>
@@ -3362,8 +4211,15 @@
       <c r="C121" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>545</v>
+      </c>
+      <c r="E121" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>297</v>
       </c>
@@ -3373,8 +4229,15 @@
       <c r="C122" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>545</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>295</v>
       </c>
@@ -3384,8 +4247,15 @@
       <c r="C123" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>545</v>
+      </c>
+      <c r="E123" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>293</v>
       </c>
@@ -3395,8 +4265,15 @@
       <c r="C124" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>545</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>290</v>
       </c>
@@ -3406,8 +4283,15 @@
       <c r="C125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>545</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -3417,8 +4301,15 @@
       <c r="C126" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>545</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>286</v>
       </c>
@@ -3428,8 +4319,15 @@
       <c r="C127" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>545</v>
+      </c>
+      <c r="E127" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>284</v>
       </c>
@@ -3439,8 +4337,15 @@
       <c r="C128" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>545</v>
+      </c>
+      <c r="E128" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>282</v>
       </c>
@@ -3450,8 +4355,15 @@
       <c r="C129" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>545</v>
+      </c>
+      <c r="E129" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>280</v>
       </c>
@@ -3461,8 +4373,15 @@
       <c r="C130" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>545</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" ref="E130:E193" ca="1" si="2">TODAY()</f>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -3472,8 +4391,15 @@
       <c r="C131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>545</v>
+      </c>
+      <c r="E131" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>276</v>
       </c>
@@ -3483,8 +4409,15 @@
       <c r="C132" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>545</v>
+      </c>
+      <c r="E132" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>274</v>
       </c>
@@ -3494,8 +4427,15 @@
       <c r="C133" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>545</v>
+      </c>
+      <c r="E133" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>271</v>
       </c>
@@ -3505,8 +4445,15 @@
       <c r="C134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>545</v>
+      </c>
+      <c r="E134" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -3516,8 +4463,15 @@
       <c r="C135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>545</v>
+      </c>
+      <c r="E135" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>267</v>
       </c>
@@ -3527,8 +4481,15 @@
       <c r="C136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>545</v>
+      </c>
+      <c r="E136" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>265</v>
       </c>
@@ -3538,8 +4499,15 @@
       <c r="C137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>545</v>
+      </c>
+      <c r="E137" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>263</v>
       </c>
@@ -3549,8 +4517,15 @@
       <c r="C138" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>545</v>
+      </c>
+      <c r="E138" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>261</v>
       </c>
@@ -3560,8 +4535,15 @@
       <c r="C139" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>545</v>
+      </c>
+      <c r="E139" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>259</v>
       </c>
@@ -3571,8 +4553,15 @@
       <c r="C140" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>545</v>
+      </c>
+      <c r="E140" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>257</v>
       </c>
@@ -3582,8 +4571,15 @@
       <c r="C141" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>545</v>
+      </c>
+      <c r="E141" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>255</v>
       </c>
@@ -3593,8 +4589,15 @@
       <c r="C142" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>545</v>
+      </c>
+      <c r="E142" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>253</v>
       </c>
@@ -3604,8 +4607,15 @@
       <c r="C143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>545</v>
+      </c>
+      <c r="E143" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>251</v>
       </c>
@@ -3615,8 +4625,15 @@
       <c r="C144" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>545</v>
+      </c>
+      <c r="E144" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>249</v>
       </c>
@@ -3626,8 +4643,15 @@
       <c r="C145" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>545</v>
+      </c>
+      <c r="E145" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>247</v>
       </c>
@@ -3637,8 +4661,15 @@
       <c r="C146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>545</v>
+      </c>
+      <c r="E146" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>245</v>
       </c>
@@ -3648,8 +4679,15 @@
       <c r="C147" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>545</v>
+      </c>
+      <c r="E147" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>243</v>
       </c>
@@ -3659,8 +4697,15 @@
       <c r="C148" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>545</v>
+      </c>
+      <c r="E148" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>241</v>
       </c>
@@ -3670,8 +4715,15 @@
       <c r="C149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>545</v>
+      </c>
+      <c r="E149" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>239</v>
       </c>
@@ -3681,8 +4733,15 @@
       <c r="C150" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>545</v>
+      </c>
+      <c r="E150" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>237</v>
       </c>
@@ -3692,8 +4751,15 @@
       <c r="C151" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>545</v>
+      </c>
+      <c r="E151" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>235</v>
       </c>
@@ -3703,8 +4769,15 @@
       <c r="C152" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>545</v>
+      </c>
+      <c r="E152" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>233</v>
       </c>
@@ -3714,8 +4787,15 @@
       <c r="C153" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>545</v>
+      </c>
+      <c r="E153" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>231</v>
       </c>
@@ -3725,8 +4805,15 @@
       <c r="C154" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>545</v>
+      </c>
+      <c r="E154" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>229</v>
       </c>
@@ -3736,8 +4823,15 @@
       <c r="C155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>545</v>
+      </c>
+      <c r="E155" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>227</v>
       </c>
@@ -3747,8 +4841,15 @@
       <c r="C156" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>545</v>
+      </c>
+      <c r="E156" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>225</v>
       </c>
@@ -3758,8 +4859,15 @@
       <c r="C157" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>545</v>
+      </c>
+      <c r="E157" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>223</v>
       </c>
@@ -3769,8 +4877,15 @@
       <c r="C158" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>545</v>
+      </c>
+      <c r="E158" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>221</v>
       </c>
@@ -3780,8 +4895,15 @@
       <c r="C159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>545</v>
+      </c>
+      <c r="E159" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>219</v>
       </c>
@@ -3791,8 +4913,15 @@
       <c r="C160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>545</v>
+      </c>
+      <c r="E160" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>217</v>
       </c>
@@ -3802,8 +4931,15 @@
       <c r="C161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>545</v>
+      </c>
+      <c r="E161" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>215</v>
       </c>
@@ -3813,8 +4949,15 @@
       <c r="C162" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>545</v>
+      </c>
+      <c r="E162" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>213</v>
       </c>
@@ -3824,8 +4967,15 @@
       <c r="C163" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>545</v>
+      </c>
+      <c r="E163" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>211</v>
       </c>
@@ -3835,8 +4985,15 @@
       <c r="C164" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>545</v>
+      </c>
+      <c r="E164" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -3846,8 +5003,15 @@
       <c r="C165" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>545</v>
+      </c>
+      <c r="E165" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>207</v>
       </c>
@@ -3857,8 +5021,15 @@
       <c r="C166" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>545</v>
+      </c>
+      <c r="E166" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>205</v>
       </c>
@@ -3868,8 +5039,15 @@
       <c r="C167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>545</v>
+      </c>
+      <c r="E167" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>203</v>
       </c>
@@ -3879,8 +5057,15 @@
       <c r="C168" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>545</v>
+      </c>
+      <c r="E168" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>201</v>
       </c>
@@ -3890,8 +5075,15 @@
       <c r="C169" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>545</v>
+      </c>
+      <c r="E169" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>199</v>
       </c>
@@ -3901,8 +5093,15 @@
       <c r="C170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>545</v>
+      </c>
+      <c r="E170" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -3912,8 +5111,15 @@
       <c r="C171" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>545</v>
+      </c>
+      <c r="E171" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>195</v>
       </c>
@@ -3923,8 +5129,15 @@
       <c r="C172" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>545</v>
+      </c>
+      <c r="E172" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -3934,8 +5147,15 @@
       <c r="C173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>545</v>
+      </c>
+      <c r="E173" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -3945,8 +5165,15 @@
       <c r="C174" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>545</v>
+      </c>
+      <c r="E174" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -3956,8 +5183,15 @@
       <c r="C175" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>545</v>
+      </c>
+      <c r="E175" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>187</v>
       </c>
@@ -3967,8 +5201,15 @@
       <c r="C176" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>545</v>
+      </c>
+      <c r="E176" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -3978,8 +5219,15 @@
       <c r="C177" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>545</v>
+      </c>
+      <c r="E177" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>183</v>
       </c>
@@ -3989,8 +5237,15 @@
       <c r="C178" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" t="s">
+        <v>545</v>
+      </c>
+      <c r="E178" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -4000,8 +5255,15 @@
       <c r="C179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>545</v>
+      </c>
+      <c r="E179" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4011,8 +5273,15 @@
       <c r="C180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>545</v>
+      </c>
+      <c r="E180" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>177</v>
       </c>
@@ -4022,8 +5291,15 @@
       <c r="C181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>545</v>
+      </c>
+      <c r="E181" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>175</v>
       </c>
@@ -4033,8 +5309,15 @@
       <c r="C182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>545</v>
+      </c>
+      <c r="E182" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>173</v>
       </c>
@@ -4044,8 +5327,15 @@
       <c r="C183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>545</v>
+      </c>
+      <c r="E183" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>171</v>
       </c>
@@ -4055,8 +5345,15 @@
       <c r="C184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>545</v>
+      </c>
+      <c r="E184" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -4066,8 +5363,15 @@
       <c r="C185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>545</v>
+      </c>
+      <c r="E185" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -4077,8 +5381,15 @@
       <c r="C186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>545</v>
+      </c>
+      <c r="E186" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -4088,8 +5399,15 @@
       <c r="C187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>545</v>
+      </c>
+      <c r="E187" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>163</v>
       </c>
@@ -4099,8 +5417,15 @@
       <c r="C188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>545</v>
+      </c>
+      <c r="E188" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>161</v>
       </c>
@@ -4110,8 +5435,15 @@
       <c r="C189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
+        <v>545</v>
+      </c>
+      <c r="E189" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>159</v>
       </c>
@@ -4121,8 +5453,15 @@
       <c r="C190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>545</v>
+      </c>
+      <c r="E190" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>157</v>
       </c>
@@ -4132,8 +5471,15 @@
       <c r="C191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" t="s">
+        <v>545</v>
+      </c>
+      <c r="E191" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>155</v>
       </c>
@@ -4143,8 +5489,15 @@
       <c r="C192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" t="s">
+        <v>545</v>
+      </c>
+      <c r="E192" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>153</v>
       </c>
@@ -4154,8 +5507,15 @@
       <c r="C193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>545</v>
+      </c>
+      <c r="E193" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>151</v>
       </c>
@@ -4165,8 +5525,15 @@
       <c r="C194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>545</v>
+      </c>
+      <c r="E194" s="3">
+        <f t="shared" ref="E194:E257" ca="1" si="3">TODAY()</f>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>149</v>
       </c>
@@ -4176,8 +5543,15 @@
       <c r="C195" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" t="s">
+        <v>545</v>
+      </c>
+      <c r="E195" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>147</v>
       </c>
@@ -4187,8 +5561,15 @@
       <c r="C196" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>545</v>
+      </c>
+      <c r="E196" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>145</v>
       </c>
@@ -4198,8 +5579,15 @@
       <c r="C197" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>545</v>
+      </c>
+      <c r="E197" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>143</v>
       </c>
@@ -4209,8 +5597,15 @@
       <c r="C198" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>545</v>
+      </c>
+      <c r="E198" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>141</v>
       </c>
@@ -4220,8 +5615,15 @@
       <c r="C199" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>545</v>
+      </c>
+      <c r="E199" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>139</v>
       </c>
@@ -4231,8 +5633,15 @@
       <c r="C200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" t="s">
+        <v>545</v>
+      </c>
+      <c r="E200" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>137</v>
       </c>
@@ -4242,8 +5651,15 @@
       <c r="C201" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" t="s">
+        <v>545</v>
+      </c>
+      <c r="E201" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>135</v>
       </c>
@@ -4253,8 +5669,15 @@
       <c r="C202" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" t="s">
+        <v>545</v>
+      </c>
+      <c r="E202" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>133</v>
       </c>
@@ -4264,8 +5687,15 @@
       <c r="C203" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" t="s">
+        <v>545</v>
+      </c>
+      <c r="E203" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>131</v>
       </c>
@@ -4275,8 +5705,15 @@
       <c r="C204" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" t="s">
+        <v>545</v>
+      </c>
+      <c r="E204" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>129</v>
       </c>
@@ -4286,8 +5723,15 @@
       <c r="C205" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" t="s">
+        <v>545</v>
+      </c>
+      <c r="E205" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>127</v>
       </c>
@@ -4297,8 +5741,15 @@
       <c r="C206" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" t="s">
+        <v>545</v>
+      </c>
+      <c r="E206" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>125</v>
       </c>
@@ -4308,8 +5759,15 @@
       <c r="C207" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" t="s">
+        <v>545</v>
+      </c>
+      <c r="E207" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>123</v>
       </c>
@@ -4319,8 +5777,15 @@
       <c r="C208" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" t="s">
+        <v>545</v>
+      </c>
+      <c r="E208" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>121</v>
       </c>
@@ -4330,8 +5795,15 @@
       <c r="C209" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" t="s">
+        <v>545</v>
+      </c>
+      <c r="E209" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>119</v>
       </c>
@@ -4341,8 +5813,15 @@
       <c r="C210" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" t="s">
+        <v>545</v>
+      </c>
+      <c r="E210" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>117</v>
       </c>
@@ -4352,8 +5831,15 @@
       <c r="C211" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" t="s">
+        <v>545</v>
+      </c>
+      <c r="E211" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>115</v>
       </c>
@@ -4363,8 +5849,15 @@
       <c r="C212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" t="s">
+        <v>545</v>
+      </c>
+      <c r="E212" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>113</v>
       </c>
@@ -4374,8 +5867,15 @@
       <c r="C213" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" t="s">
+        <v>545</v>
+      </c>
+      <c r="E213" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>111</v>
       </c>
@@ -4385,8 +5885,15 @@
       <c r="C214" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" t="s">
+        <v>545</v>
+      </c>
+      <c r="E214" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>109</v>
       </c>
@@ -4396,8 +5903,15 @@
       <c r="C215" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" t="s">
+        <v>545</v>
+      </c>
+      <c r="E215" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>107</v>
       </c>
@@ -4407,8 +5921,15 @@
       <c r="C216" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" t="s">
+        <v>545</v>
+      </c>
+      <c r="E216" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>105</v>
       </c>
@@ -4418,8 +5939,15 @@
       <c r="C217" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" t="s">
+        <v>545</v>
+      </c>
+      <c r="E217" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>103</v>
       </c>
@@ -4429,8 +5957,15 @@
       <c r="C218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" t="s">
+        <v>545</v>
+      </c>
+      <c r="E218" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>101</v>
       </c>
@@ -4440,8 +5975,15 @@
       <c r="C219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" t="s">
+        <v>545</v>
+      </c>
+      <c r="E219" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>99</v>
       </c>
@@ -4451,8 +5993,15 @@
       <c r="C220" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" t="s">
+        <v>545</v>
+      </c>
+      <c r="E220" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>97</v>
       </c>
@@ -4462,8 +6011,15 @@
       <c r="C221" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" t="s">
+        <v>545</v>
+      </c>
+      <c r="E221" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>95</v>
       </c>
@@ -4473,8 +6029,15 @@
       <c r="C222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" t="s">
+        <v>545</v>
+      </c>
+      <c r="E222" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>93</v>
       </c>
@@ -4484,8 +6047,15 @@
       <c r="C223" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" t="s">
+        <v>545</v>
+      </c>
+      <c r="E223" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -4495,8 +6065,15 @@
       <c r="C224" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" t="s">
+        <v>545</v>
+      </c>
+      <c r="E224" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>89</v>
       </c>
@@ -4506,8 +6083,15 @@
       <c r="C225" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" t="s">
+        <v>545</v>
+      </c>
+      <c r="E225" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>87</v>
       </c>
@@ -4517,8 +6101,15 @@
       <c r="C226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" t="s">
+        <v>545</v>
+      </c>
+      <c r="E226" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>85</v>
       </c>
@@ -4528,8 +6119,15 @@
       <c r="C227" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" t="s">
+        <v>545</v>
+      </c>
+      <c r="E227" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>83</v>
       </c>
@@ -4539,8 +6137,15 @@
       <c r="C228" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" t="s">
+        <v>545</v>
+      </c>
+      <c r="E228" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>81</v>
       </c>
@@ -4550,8 +6155,15 @@
       <c r="C229" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" t="s">
+        <v>545</v>
+      </c>
+      <c r="E229" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>79</v>
       </c>
@@ -4561,8 +6173,15 @@
       <c r="C230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" t="s">
+        <v>545</v>
+      </c>
+      <c r="E230" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>77</v>
       </c>
@@ -4572,8 +6191,15 @@
       <c r="C231" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" t="s">
+        <v>545</v>
+      </c>
+      <c r="E231" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>75</v>
       </c>
@@ -4583,8 +6209,15 @@
       <c r="C232" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" t="s">
+        <v>545</v>
+      </c>
+      <c r="E232" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>73</v>
       </c>
@@ -4594,8 +6227,15 @@
       <c r="C233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" t="s">
+        <v>545</v>
+      </c>
+      <c r="E233" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>71</v>
       </c>
@@ -4605,8 +6245,15 @@
       <c r="C234" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" t="s">
+        <v>545</v>
+      </c>
+      <c r="E234" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>69</v>
       </c>
@@ -4616,8 +6263,15 @@
       <c r="C235" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" t="s">
+        <v>545</v>
+      </c>
+      <c r="E235" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>67</v>
       </c>
@@ -4627,8 +6281,15 @@
       <c r="C236" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" t="s">
+        <v>545</v>
+      </c>
+      <c r="E236" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>65</v>
       </c>
@@ -4638,8 +6299,15 @@
       <c r="C237" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" t="s">
+        <v>545</v>
+      </c>
+      <c r="E237" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>63</v>
       </c>
@@ -4649,8 +6317,15 @@
       <c r="C238" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" t="s">
+        <v>545</v>
+      </c>
+      <c r="E238" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>61</v>
       </c>
@@ -4660,8 +6335,15 @@
       <c r="C239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" t="s">
+        <v>545</v>
+      </c>
+      <c r="E239" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>59</v>
       </c>
@@ -4671,8 +6353,15 @@
       <c r="C240" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" t="s">
+        <v>545</v>
+      </c>
+      <c r="E240" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>57</v>
       </c>
@@ -4682,8 +6371,15 @@
       <c r="C241" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" t="s">
+        <v>545</v>
+      </c>
+      <c r="E241" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>54</v>
       </c>
@@ -4693,8 +6389,15 @@
       <c r="C242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" t="s">
+        <v>545</v>
+      </c>
+      <c r="E242" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>52</v>
       </c>
@@ -4704,8 +6407,15 @@
       <c r="C243" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" t="s">
+        <v>545</v>
+      </c>
+      <c r="E243" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>50</v>
       </c>
@@ -4715,8 +6425,15 @@
       <c r="C244" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" t="s">
+        <v>545</v>
+      </c>
+      <c r="E244" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>48</v>
       </c>
@@ -4726,8 +6443,15 @@
       <c r="C245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" t="s">
+        <v>545</v>
+      </c>
+      <c r="E245" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>46</v>
       </c>
@@ -4737,8 +6461,15 @@
       <c r="C246" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" t="s">
+        <v>545</v>
+      </c>
+      <c r="E246" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>44</v>
       </c>
@@ -4748,8 +6479,15 @@
       <c r="C247" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" t="s">
+        <v>545</v>
+      </c>
+      <c r="E247" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>42</v>
       </c>
@@ -4759,8 +6497,15 @@
       <c r="C248" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" t="s">
+        <v>545</v>
+      </c>
+      <c r="E248" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>40</v>
       </c>
@@ -4770,8 +6515,15 @@
       <c r="C249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" t="s">
+        <v>545</v>
+      </c>
+      <c r="E249" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>38</v>
       </c>
@@ -4781,8 +6533,15 @@
       <c r="C250" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" t="s">
+        <v>545</v>
+      </c>
+      <c r="E250" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>36</v>
       </c>
@@ -4792,8 +6551,15 @@
       <c r="C251" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" t="s">
+        <v>545</v>
+      </c>
+      <c r="E251" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>34</v>
       </c>
@@ -4803,8 +6569,15 @@
       <c r="C252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" t="s">
+        <v>545</v>
+      </c>
+      <c r="E252" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>32</v>
       </c>
@@ -4814,8 +6587,15 @@
       <c r="C253" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" t="s">
+        <v>545</v>
+      </c>
+      <c r="E253" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>30</v>
       </c>
@@ -4825,8 +6605,15 @@
       <c r="C254" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" t="s">
+        <v>545</v>
+      </c>
+      <c r="E254" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>28</v>
       </c>
@@ -4836,8 +6623,15 @@
       <c r="C255" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" t="s">
+        <v>545</v>
+      </c>
+      <c r="E255" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>26</v>
       </c>
@@ -4847,8 +6641,15 @@
       <c r="C256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" t="s">
+        <v>545</v>
+      </c>
+      <c r="E256" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>24</v>
       </c>
@@ -4858,8 +6659,15 @@
       <c r="C257" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" t="s">
+        <v>545</v>
+      </c>
+      <c r="E257" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>22</v>
       </c>
@@ -4869,8 +6677,15 @@
       <c r="C258" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" t="s">
+        <v>545</v>
+      </c>
+      <c r="E258" s="3">
+        <f t="shared" ref="E258:E266" ca="1" si="4">TODAY()</f>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -4880,8 +6695,15 @@
       <c r="C259" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" t="s">
+        <v>545</v>
+      </c>
+      <c r="E259" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -4891,8 +6713,15 @@
       <c r="C260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" t="s">
+        <v>545</v>
+      </c>
+      <c r="E260" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -4902,8 +6731,15 @@
       <c r="C261" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" t="s">
+        <v>545</v>
+      </c>
+      <c r="E261" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -4913,8 +6749,15 @@
       <c r="C262" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" t="s">
+        <v>545</v>
+      </c>
+      <c r="E262" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -4924,8 +6767,15 @@
       <c r="C263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" t="s">
+        <v>545</v>
+      </c>
+      <c r="E263" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -4935,8 +6785,15 @@
       <c r="C264" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" t="s">
+        <v>545</v>
+      </c>
+      <c r="E264" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -4946,8 +6803,15 @@
       <c r="C265" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" t="s">
+        <v>545</v>
+      </c>
+      <c r="E265" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -4956,6 +6820,13 @@
       </c>
       <c r="C266" t="s">
         <v>0</v>
+      </c>
+      <c r="D266" t="s">
+        <v>545</v>
+      </c>
+      <c r="E266" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>45486</v>
       </c>
     </row>
   </sheetData>

--- a/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_CATEGORIES.xlsx
+++ b/VB06_BULK_IMPORTING_T_SQL_QUERIES/LA_2024/TB_FINISHED_PRODUCT_CATEGORIES.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\VBA_MINI_PROJECTS\VB06_BULK_IMPORTING_T_SQL_QUERIES\LA_2024\"/>
@@ -2020,15 +2020,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B28" sqref="B28"/>
-      <selection pane="bottomLeft" sqref="A1:F266"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E65" ca="1" si="0">TODAY()</f>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="E52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="E62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="E63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="E64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E129" ca="1" si="1">TODAY()</f>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="E68" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E69" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="E70" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E71" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="E72" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="E73" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="E74" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="E75" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="E76" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="E77" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="E78" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="E79" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="E80" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="E82" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="E83" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E84" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="E85" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E86" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="E87" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="E88" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="E89" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E90" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E91" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="E92" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="E93" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="E94" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="E95" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="E96" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E97" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E98" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="E99" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="E100" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E101" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="E102" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="E103" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="E104" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="E105" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="E106" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="E107" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="E108" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="E109" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="E110" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E111" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E112" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E113" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="E114" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="E115" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="E116" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E117" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="E118" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E119" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="E120" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="E121" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="E122" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="E123" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="E124" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="E125" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="E126" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E127" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="E128" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E129" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="E130" s="3">
         <f t="shared" ref="E130:E193" ca="1" si="2">TODAY()</f>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="E131" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -4414,7 +4414,7 @@
       </c>
       <c r="E132" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="E133" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="E134" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="E135" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="E136" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="E137" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E138" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="E139" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="E140" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="E141" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="E142" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="E143" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="E144" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E145" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="E146" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="E147" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E148" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="E149" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="E150" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E151" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="E152" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="E153" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="E154" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="E155" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="E156" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="E157" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="E158" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E159" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="E160" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="E161" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="E162" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="E163" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="E164" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="E165" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="E166" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="E167" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="E168" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="E169" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="E170" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="E171" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="E172" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="E173" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="E174" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="E175" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="E176" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="E177" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="E178" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="E179" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E180" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="E181" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="E182" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E183" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="E184" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="E185" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="E186" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="E187" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="E188" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="E189" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="E190" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E191" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="E192" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="E193" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E194" s="3">
         <f t="shared" ref="E194:E257" ca="1" si="3">TODAY()</f>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="E195" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="E196" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="E197" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="E198" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="E199" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="E200" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E201" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="E202" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="E203" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="E204" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="E205" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="E206" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="E207" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="E208" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="E209" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="E210" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E211" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="E212" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="E213" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="E214" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="E215" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="E216" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="E217" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="E218" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="E219" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="E220" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="E221" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="E222" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="E223" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="E224" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="E225" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="E226" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="E227" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="E228" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="E229" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="E230" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="E231" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="E232" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="E233" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="E234" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="E235" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="E236" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="E237" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="E238" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="E239" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="E240" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="E241" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="E242" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="E243" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="E244" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="E245" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="E246" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="E247" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="E248" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="E249" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="E250" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="E251" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="E252" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="E253" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="E254" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="E255" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="E256" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="E257" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E258" s="3">
         <f t="shared" ref="E258:E266" ca="1" si="4">TODAY()</f>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="E259" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="E260" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="E261" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="E262" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="E263" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="E264" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="E265" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="E266" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45486</v>
+        <v>45496</v>
       </c>
     </row>
   </sheetData>
